--- a/config_11.10/item_config.xlsx
+++ b/config_11.10/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="636">
   <si>
     <t>id|行号</t>
   </si>
@@ -2504,6 +2504,84 @@
   </si>
   <si>
     <t>新人七天乐积分（new）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_4</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_5</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_4</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_5</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_4</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_5</t>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_4_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_5_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_4_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_5_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_4_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_5_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹(赠送)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3034,11 +3112,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q173"/>
+  <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L174" sqref="L174"/>
+      <selection pane="bottomLeft" activeCell="F167" sqref="F167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8314,7 +8392,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>558</v>
+        <v>615</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -8323,7 +8401,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>579</v>
+        <v>625</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -8332,13 +8410,16 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>566</v>
+        <v>629</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>629</v>
+      </c>
+      <c r="L160" s="12" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="11">
         <v>160</v>
       </c>
@@ -8346,7 +8427,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>559</v>
+        <v>616</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -8355,7 +8436,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>580</v>
+        <v>626</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -8364,13 +8445,16 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>570</v>
+        <v>630</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="162" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>630</v>
+      </c>
+      <c r="L161" s="12" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="11">
         <v>161</v>
       </c>
@@ -8378,7 +8462,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D162" s="11">
         <v>-1</v>
@@ -8387,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="G162" s="11">
         <v>1</v>
@@ -8396,13 +8480,13 @@
         <v>34</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="163" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="11">
         <v>162</v>
       </c>
@@ -8410,7 +8494,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="D163" s="11">
         <v>-1</v>
@@ -8419,7 +8503,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G163" s="11">
         <v>1</v>
@@ -8428,13 +8512,13 @@
         <v>34</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="164" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="11">
         <v>163</v>
       </c>
@@ -8442,7 +8526,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>564</v>
+        <v>560</v>
       </c>
       <c r="D164" s="11">
         <v>-1</v>
@@ -8451,7 +8535,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="G164" s="11">
         <v>1</v>
@@ -8460,13 +8544,13 @@
         <v>34</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>573</v>
-      </c>
-    </row>
-    <row r="165" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="11">
         <v>164</v>
       </c>
@@ -8474,7 +8558,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>565</v>
+        <v>617</v>
       </c>
       <c r="D165" s="11">
         <v>-1</v>
@@ -8483,7 +8567,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>581</v>
+        <v>623</v>
       </c>
       <c r="G165" s="11">
         <v>1</v>
@@ -8492,13 +8576,13 @@
         <v>34</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>574</v>
+        <v>632</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="166" spans="1:10" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="11">
         <v>165</v>
       </c>
@@ -8506,245 +8590,437 @@
         <v>165</v>
       </c>
       <c r="C166" s="22" t="s">
+        <v>618</v>
+      </c>
+      <c r="D166" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E166" s="11">
+        <v>1</v>
+      </c>
+      <c r="F166" s="12" t="s">
+        <v>624</v>
+      </c>
+      <c r="G166" s="11">
+        <v>1</v>
+      </c>
+      <c r="H166" s="11">
+        <v>34</v>
+      </c>
+      <c r="I166" s="12" t="s">
+        <v>631</v>
+      </c>
+      <c r="J166" s="12" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A167" s="11">
+        <v>166</v>
+      </c>
+      <c r="B167" s="11">
+        <v>166</v>
+      </c>
+      <c r="C167" s="22" t="s">
+        <v>563</v>
+      </c>
+      <c r="D167" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E167" s="11">
+        <v>1</v>
+      </c>
+      <c r="F167" s="12" t="s">
+        <v>579</v>
+      </c>
+      <c r="G167" s="11">
+        <v>1</v>
+      </c>
+      <c r="H167" s="11">
+        <v>34</v>
+      </c>
+      <c r="I167" s="12" t="s">
+        <v>572</v>
+      </c>
+      <c r="J167" s="12" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="11">
+        <v>167</v>
+      </c>
+      <c r="B168" s="11">
+        <v>167</v>
+      </c>
+      <c r="C168" s="22" t="s">
+        <v>564</v>
+      </c>
+      <c r="D168" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E168" s="11">
+        <v>1</v>
+      </c>
+      <c r="F168" s="12" t="s">
+        <v>580</v>
+      </c>
+      <c r="G168" s="11">
+        <v>1</v>
+      </c>
+      <c r="H168" s="11">
+        <v>34</v>
+      </c>
+      <c r="I168" s="12" t="s">
+        <v>573</v>
+      </c>
+      <c r="J168" s="12" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A169" s="11">
+        <v>168</v>
+      </c>
+      <c r="B169" s="11">
+        <v>168</v>
+      </c>
+      <c r="C169" s="22" t="s">
+        <v>565</v>
+      </c>
+      <c r="D169" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E169" s="11">
+        <v>1</v>
+      </c>
+      <c r="F169" s="12" t="s">
+        <v>581</v>
+      </c>
+      <c r="G169" s="11">
+        <v>1</v>
+      </c>
+      <c r="H169" s="11">
+        <v>34</v>
+      </c>
+      <c r="I169" s="12" t="s">
+        <v>633</v>
+      </c>
+      <c r="J169" s="12" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A170" s="11">
+        <v>169</v>
+      </c>
+      <c r="B170" s="11">
+        <v>169</v>
+      </c>
+      <c r="C170" s="22" t="s">
+        <v>619</v>
+      </c>
+      <c r="D170" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E170" s="11">
+        <v>1</v>
+      </c>
+      <c r="F170" s="12" t="s">
+        <v>621</v>
+      </c>
+      <c r="G170" s="11">
+        <v>1</v>
+      </c>
+      <c r="H170" s="11">
+        <v>34</v>
+      </c>
+      <c r="I170" s="12" t="s">
+        <v>634</v>
+      </c>
+      <c r="J170" s="12" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A171" s="11">
+        <v>170</v>
+      </c>
+      <c r="B171" s="11">
+        <v>170</v>
+      </c>
+      <c r="C171" s="22" t="s">
+        <v>620</v>
+      </c>
+      <c r="D171" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E171" s="11">
+        <v>1</v>
+      </c>
+      <c r="F171" s="12" t="s">
+        <v>622</v>
+      </c>
+      <c r="G171" s="11">
+        <v>1</v>
+      </c>
+      <c r="H171" s="11">
+        <v>34</v>
+      </c>
+      <c r="I171" s="12" t="s">
+        <v>635</v>
+      </c>
+      <c r="J171" s="12" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A172" s="11">
+        <v>171</v>
+      </c>
+      <c r="B172" s="11">
+        <v>171</v>
+      </c>
+      <c r="C172" s="22" t="s">
         <v>587</v>
       </c>
-      <c r="D166" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E166" s="11">
-        <v>1</v>
-      </c>
-      <c r="F166" s="12" t="s">
+      <c r="D172" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E172" s="11">
+        <v>1</v>
+      </c>
+      <c r="F172" s="12" t="s">
         <v>610</v>
       </c>
-      <c r="G166" s="11">
+      <c r="G172" s="11">
         <v>0</v>
       </c>
-      <c r="H166" s="11">
+      <c r="H172" s="11">
         <v>33</v>
       </c>
-      <c r="I166" s="12" t="s">
+      <c r="I172" s="12" t="s">
         <v>585</v>
       </c>
-      <c r="J166" s="12" t="s">
+      <c r="J172" s="12" t="s">
         <v>586</v>
       </c>
     </row>
-    <row r="167" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A167" s="13">
-        <v>166</v>
-      </c>
-      <c r="B167" s="13">
-        <v>166</v>
-      </c>
-      <c r="C167" s="13" t="s">
+    <row r="173" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="11">
+        <v>172</v>
+      </c>
+      <c r="B173" s="11">
+        <v>172</v>
+      </c>
+      <c r="C173" s="13" t="s">
         <v>592</v>
       </c>
-      <c r="D167" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E167" s="13">
-        <v>1</v>
-      </c>
-      <c r="F167" s="13" t="s">
+      <c r="D173" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E173" s="13">
+        <v>1</v>
+      </c>
+      <c r="F173" s="13" t="s">
         <v>593</v>
       </c>
-      <c r="G167" s="13">
-        <v>1</v>
-      </c>
-      <c r="H167" s="13">
+      <c r="G173" s="13">
+        <v>1</v>
+      </c>
+      <c r="H173" s="13">
         <v>33</v>
       </c>
-      <c r="I167" s="13" t="s">
+      <c r="I173" s="13" t="s">
         <v>594</v>
       </c>
-      <c r="J167" s="13" t="s">
+      <c r="J173" s="13" t="s">
         <v>595</v>
       </c>
     </row>
-    <row r="168" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A168" s="13">
-        <v>167</v>
-      </c>
-      <c r="B168" s="13">
-        <v>167</v>
-      </c>
-      <c r="C168" s="13" t="s">
+    <row r="174" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A174" s="11">
+        <v>173</v>
+      </c>
+      <c r="B174" s="11">
+        <v>173</v>
+      </c>
+      <c r="C174" s="13" t="s">
         <v>596</v>
       </c>
-      <c r="D168" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E168" s="13">
-        <v>1</v>
-      </c>
-      <c r="F168" s="13" t="s">
+      <c r="D174" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E174" s="13">
+        <v>1</v>
+      </c>
+      <c r="F174" s="13" t="s">
         <v>597</v>
       </c>
-      <c r="G168" s="13">
-        <v>1</v>
-      </c>
-      <c r="H168" s="13">
+      <c r="G174" s="13">
+        <v>1</v>
+      </c>
+      <c r="H174" s="13">
         <v>33</v>
       </c>
-      <c r="I168" s="13" t="s">
+      <c r="I174" s="13" t="s">
         <v>598</v>
       </c>
-      <c r="J168" s="13" t="s">
+      <c r="J174" s="13" t="s">
         <v>599</v>
       </c>
     </row>
-    <row r="169" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A169" s="13">
-        <v>168</v>
-      </c>
-      <c r="B169" s="13">
-        <v>168</v>
-      </c>
-      <c r="C169" s="13" t="s">
+    <row r="175" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A175" s="11">
+        <v>174</v>
+      </c>
+      <c r="B175" s="11">
+        <v>174</v>
+      </c>
+      <c r="C175" s="13" t="s">
         <v>600</v>
       </c>
-      <c r="D169" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E169" s="13">
-        <v>1</v>
-      </c>
-      <c r="F169" s="13" t="s">
+      <c r="D175" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E175" s="13">
+        <v>1</v>
+      </c>
+      <c r="F175" s="13" t="s">
         <v>601</v>
       </c>
-      <c r="G169" s="13">
-        <v>1</v>
-      </c>
-      <c r="H169" s="13">
+      <c r="G175" s="13">
+        <v>1</v>
+      </c>
+      <c r="H175" s="13">
         <v>33</v>
       </c>
-      <c r="I169" s="13" t="s">
+      <c r="I175" s="13" t="s">
         <v>602</v>
       </c>
-      <c r="J169" s="13" t="s">
+      <c r="J175" s="13" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="170" spans="1:10" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A170" s="23">
-        <v>169</v>
-      </c>
-      <c r="B170" s="23">
-        <v>169</v>
-      </c>
-      <c r="C170" s="24" t="s">
+    <row r="176" spans="1:12" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A176" s="11">
+        <v>175</v>
+      </c>
+      <c r="B176" s="11">
+        <v>175</v>
+      </c>
+      <c r="C176" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="D170" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E170" s="23">
-        <v>1</v>
-      </c>
-      <c r="F170" s="25" t="s">
+      <c r="D176" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="23">
+        <v>1</v>
+      </c>
+      <c r="F176" s="25" t="s">
         <v>606</v>
       </c>
-      <c r="G170" s="23">
+      <c r="G176" s="23">
         <v>0</v>
       </c>
-      <c r="H170" s="23">
+      <c r="H176" s="23">
         <v>36</v>
       </c>
-      <c r="I170" s="25" t="s">
+      <c r="I176" s="25" t="s">
         <v>437</v>
       </c>
-      <c r="J170" s="25" t="s">
+      <c r="J176" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="171" spans="1:10" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
-      <c r="A171" s="23">
-        <v>170</v>
-      </c>
-      <c r="B171" s="23">
-        <v>170</v>
-      </c>
-      <c r="C171" s="24" t="s">
+    <row r="177" spans="1:10" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A177" s="11">
+        <v>176</v>
+      </c>
+      <c r="B177" s="11">
+        <v>176</v>
+      </c>
+      <c r="C177" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="D171" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E171" s="23">
-        <v>1</v>
-      </c>
-      <c r="F171" s="23" t="s">
+      <c r="D177" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E177" s="23">
+        <v>1</v>
+      </c>
+      <c r="F177" s="23" t="s">
         <v>607</v>
       </c>
-      <c r="G171" s="23">
+      <c r="G177" s="23">
         <v>0</v>
       </c>
-      <c r="H171" s="23">
+      <c r="H177" s="23">
         <v>38</v>
       </c>
-      <c r="I171" s="25" t="s">
+      <c r="I177" s="25" t="s">
         <v>445</v>
       </c>
-      <c r="J171" s="25" t="s">
+      <c r="J177" s="25" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="172" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A172" s="26">
-        <v>171</v>
-      </c>
-      <c r="B172" s="26">
-        <v>171</v>
-      </c>
-      <c r="C172" s="27" t="s">
+    <row r="178" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A178" s="11">
+        <v>177</v>
+      </c>
+      <c r="B178" s="11">
+        <v>177</v>
+      </c>
+      <c r="C178" s="27" t="s">
         <v>608</v>
       </c>
-      <c r="D172" s="26">
-        <v>-1</v>
-      </c>
-      <c r="E172" s="26">
-        <v>1</v>
-      </c>
-      <c r="F172" s="26" t="s">
+      <c r="D178" s="26">
+        <v>-1</v>
+      </c>
+      <c r="E178" s="26">
+        <v>1</v>
+      </c>
+      <c r="F178" s="26" t="s">
         <v>609</v>
       </c>
-      <c r="G172" s="26">
+      <c r="G178" s="26">
         <v>0</v>
       </c>
-      <c r="H172" s="26">
+      <c r="H178" s="26">
         <v>33</v>
       </c>
-      <c r="I172" s="26" t="s">
+      <c r="I178" s="26" t="s">
         <v>612</v>
       </c>
-      <c r="J172" s="26" t="s">
+      <c r="J178" s="26" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="173" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A173" s="28">
-        <v>172</v>
-      </c>
-      <c r="B173" s="28">
-        <v>172</v>
-      </c>
-      <c r="D173" s="28">
-        <v>-1</v>
-      </c>
-      <c r="E173" s="28">
-        <v>1</v>
-      </c>
-      <c r="G173" s="28">
+    <row r="179" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A179" s="11">
+        <v>178</v>
+      </c>
+      <c r="B179" s="11">
+        <v>178</v>
+      </c>
+      <c r="D179" s="28">
+        <v>-1</v>
+      </c>
+      <c r="E179" s="28">
+        <v>1</v>
+      </c>
+      <c r="G179" s="28">
         <v>0</v>
       </c>
-      <c r="H173" s="28">
+      <c r="H179" s="28">
         <v>33</v>
       </c>
-      <c r="I173" s="28" t="s">
+      <c r="I179" s="28" t="s">
         <v>614</v>
       </c>
-      <c r="J173" s="28" t="s">
+      <c r="J179" s="28" t="s">
         <v>613</v>
       </c>
     </row>

--- a/config_11.10/item_config.xlsx
+++ b/config_11.10/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_11.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="config|道具配置" sheetId="5" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="636">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="773" uniqueCount="638">
   <si>
     <t>id|行号</t>
   </si>
@@ -2302,286 +2302,292 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>prop_3d_fish_nuclear_bomb_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_1</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_2</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_3</t>
+  </si>
+  <si>
+    <t>初级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>中级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",2</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",3</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_1_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_2_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_3_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳节抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cyj_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>com_award_icon_cz31</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_cjlb_10</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_xrbx_1</t>
+  </si>
+  <si>
+    <t>新手宝箱</t>
+  </si>
+  <si>
+    <t>新人专享新手宝箱</t>
+  </si>
+  <si>
+    <t>prop_cjlb_11</t>
+  </si>
+  <si>
+    <t>act_033_xrzxlb_gjbx</t>
+  </si>
+  <si>
+    <t>高级宝箱</t>
+  </si>
+  <si>
+    <t>新人专享高级宝箱</t>
+  </si>
+  <si>
+    <t>prop_cjlb_12</t>
+  </si>
+  <si>
+    <t>xrzxlb_iocn_hhbx_1</t>
+  </si>
+  <si>
+    <t>豪华宝箱</t>
+  </si>
+  <si>
+    <t>新人专享豪华宝箱</t>
+  </si>
+  <si>
+    <t>prop_guess_apple_cz</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_guess_apple_sd</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldfd_icon_shui</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>ldfd_zpg_icon_cc</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_11.11_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cwzp_icon_cjq</t>
+  </si>
+  <si>
+    <t>cwzp_icon_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十一抽奖券</t>
+  </si>
+  <si>
+    <t>双十一抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_4</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_fragment_5</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_4</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_5</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_4</t>
+  </si>
+  <si>
+    <t>prop_3d_fish_nuclear_bomb_give_5</t>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_4_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_5_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_4_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedan_5_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_4_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_hedansp_5_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",4</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>"by3d_hd","hecheng",5</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹碎片</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>顶级核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>终极核弹(赠送)</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>task_1000114</t>
+  </si>
+  <si>
+    <t>ty_icon_hytb</t>
+  </si>
+  <si>
+    <t>积分</t>
+  </si>
+  <si>
+    <t>新人七天乐积分</t>
+  </si>
+  <si>
     <t>prop_3d_fish_nuclear_bomb_1</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_3</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_1</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_2</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_3</t>
-  </si>
-  <si>
-    <t>初级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>初级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>中级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",2</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",3</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_1_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_2_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_3_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>重阳节抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cyj_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>com_award_icon_cz31</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_cjlb_10</t>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_xrbx_1</t>
-  </si>
-  <si>
-    <t>新手宝箱</t>
-  </si>
-  <si>
-    <t>新人专享新手宝箱</t>
-  </si>
-  <si>
-    <t>prop_cjlb_11</t>
-  </si>
-  <si>
-    <t>act_033_xrzxlb_gjbx</t>
-  </si>
-  <si>
-    <t>高级宝箱</t>
-  </si>
-  <si>
-    <t>新人专享高级宝箱</t>
-  </si>
-  <si>
-    <t>prop_cjlb_12</t>
-  </si>
-  <si>
-    <t>xrzxlb_iocn_hhbx_1</t>
-  </si>
-  <si>
-    <t>豪华宝箱</t>
-  </si>
-  <si>
-    <t>新人专享豪华宝箱</t>
-  </si>
-  <si>
-    <t>prop_guess_apple_cz</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_guess_apple_sd</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldfd_icon_shui</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>ldfd_zpg_icon_cc</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_11.11_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cwzp_icon_cjq</t>
-  </si>
-  <si>
-    <t>cwzp_icon_cjq</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十一抽奖券</t>
-  </si>
-  <si>
-    <t>双十一抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>新人七天乐积分（new）</t>
-  </si>
-  <si>
-    <t>新人七天乐积分（new）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_4</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_fragment_5</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_4</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_5</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_4</t>
-  </si>
-  <si>
-    <t>prop_3d_fish_nuclear_bomb_give_5</t>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_4_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_5_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_4_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedan_5_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_4_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_hedansp_5_1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",4</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>"by3d_hd","hecheng",5</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶级核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>终极核弹碎片</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>终极核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶级核弹</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>高级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>顶级核弹(赠送)</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>终极核弹(赠送)</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3115,8 +3121,8 @@
   <dimension ref="A1:Q179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F167" sqref="F167"/>
+      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4096,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -7976,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G147" s="11">
         <v>0</v>
@@ -8072,7 +8078,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G150" s="11">
         <v>0</v>
@@ -8168,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="G153" s="11">
         <v>0</v>
@@ -8287,7 +8293,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="D157" s="11">
         <v>-1</v>
@@ -8296,7 +8302,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G157" s="11">
         <v>1</v>
@@ -8305,13 +8311,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="158" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8322,7 +8328,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D158" s="11">
         <v>-1</v>
@@ -8331,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G158" s="11">
         <v>1</v>
@@ -8340,13 +8346,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="159" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8357,7 +8363,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D159" s="11">
         <v>-1</v>
@@ -8366,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="G159" s="11">
         <v>1</v>
@@ -8375,13 +8381,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="160" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8392,7 +8398,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -8401,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -8410,13 +8416,13 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="161" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8427,7 +8433,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -8436,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -8445,13 +8451,13 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="162" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8462,7 +8468,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>558</v>
+        <v>637</v>
       </c>
       <c r="D162" s="11">
         <v>-1</v>
@@ -8471,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G162" s="11">
         <v>1</v>
@@ -8480,10 +8486,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="163" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8494,7 +8500,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D163" s="11">
         <v>-1</v>
@@ -8503,7 +8509,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G163" s="11">
         <v>1</v>
@@ -8512,10 +8518,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="164" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8526,7 +8532,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D164" s="11">
         <v>-1</v>
@@ -8535,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G164" s="11">
         <v>1</v>
@@ -8544,10 +8550,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="165" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8558,7 +8564,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="D165" s="11">
         <v>-1</v>
@@ -8567,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="G165" s="11">
         <v>1</v>
@@ -8576,10 +8582,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="166" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8590,7 +8596,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="D166" s="11">
         <v>-1</v>
@@ -8599,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="G166" s="11">
         <v>1</v>
@@ -8608,10 +8614,10 @@
         <v>34</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="167" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8622,7 +8628,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D167" s="11">
         <v>-1</v>
@@ -8631,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G167" s="11">
         <v>1</v>
@@ -8640,10 +8646,10 @@
         <v>34</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="168" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8654,7 +8660,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D168" s="11">
         <v>-1</v>
@@ -8663,7 +8669,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G168" s="11">
         <v>1</v>
@@ -8672,10 +8678,10 @@
         <v>34</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="169" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8686,7 +8692,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D169" s="11">
         <v>-1</v>
@@ -8695,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G169" s="11">
         <v>1</v>
@@ -8704,10 +8710,10 @@
         <v>34</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="170" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8718,7 +8724,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D170" s="11">
         <v>-1</v>
@@ -8727,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G170" s="11">
         <v>1</v>
@@ -8736,10 +8742,10 @@
         <v>34</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="171" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8750,7 +8756,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="D171" s="11">
         <v>-1</v>
@@ -8759,7 +8765,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="G171" s="11">
         <v>1</v>
@@ -8768,10 +8774,10 @@
         <v>34</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="172" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8782,7 +8788,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D172" s="11">
         <v>-1</v>
@@ -8791,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="G172" s="11">
         <v>0</v>
@@ -8800,10 +8806,10 @@
         <v>33</v>
       </c>
       <c r="I172" s="12" t="s">
+        <v>584</v>
+      </c>
+      <c r="J172" s="12" t="s">
         <v>585</v>
-      </c>
-      <c r="J172" s="12" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="173" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8814,16 +8820,16 @@
         <v>172</v>
       </c>
       <c r="C173" s="13" t="s">
+        <v>591</v>
+      </c>
+      <c r="D173" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E173" s="13">
+        <v>1</v>
+      </c>
+      <c r="F173" s="13" t="s">
         <v>592</v>
-      </c>
-      <c r="D173" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E173" s="13">
-        <v>1</v>
-      </c>
-      <c r="F173" s="13" t="s">
-        <v>593</v>
       </c>
       <c r="G173" s="13">
         <v>1</v>
@@ -8832,10 +8838,10 @@
         <v>33</v>
       </c>
       <c r="I173" s="13" t="s">
+        <v>593</v>
+      </c>
+      <c r="J173" s="13" t="s">
         <v>594</v>
-      </c>
-      <c r="J173" s="13" t="s">
-        <v>595</v>
       </c>
     </row>
     <row r="174" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8846,16 +8852,16 @@
         <v>173</v>
       </c>
       <c r="C174" s="13" t="s">
+        <v>595</v>
+      </c>
+      <c r="D174" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E174" s="13">
+        <v>1</v>
+      </c>
+      <c r="F174" s="13" t="s">
         <v>596</v>
-      </c>
-      <c r="D174" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E174" s="13">
-        <v>1</v>
-      </c>
-      <c r="F174" s="13" t="s">
-        <v>597</v>
       </c>
       <c r="G174" s="13">
         <v>1</v>
@@ -8864,10 +8870,10 @@
         <v>33</v>
       </c>
       <c r="I174" s="13" t="s">
+        <v>597</v>
+      </c>
+      <c r="J174" s="13" t="s">
         <v>598</v>
-      </c>
-      <c r="J174" s="13" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="175" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8878,16 +8884,16 @@
         <v>174</v>
       </c>
       <c r="C175" s="13" t="s">
+        <v>599</v>
+      </c>
+      <c r="D175" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E175" s="13">
+        <v>1</v>
+      </c>
+      <c r="F175" s="13" t="s">
         <v>600</v>
-      </c>
-      <c r="D175" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E175" s="13">
-        <v>1</v>
-      </c>
-      <c r="F175" s="13" t="s">
-        <v>601</v>
       </c>
       <c r="G175" s="13">
         <v>1</v>
@@ -8896,10 +8902,10 @@
         <v>33</v>
       </c>
       <c r="I175" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="J175" s="13" t="s">
         <v>602</v>
-      </c>
-      <c r="J175" s="13" t="s">
-        <v>603</v>
       </c>
     </row>
     <row r="176" spans="1:12" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8910,16 +8916,16 @@
         <v>175</v>
       </c>
       <c r="C176" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="D176" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="23">
+        <v>1</v>
+      </c>
+      <c r="F176" s="25" t="s">
         <v>605</v>
-      </c>
-      <c r="D176" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E176" s="23">
-        <v>1</v>
-      </c>
-      <c r="F176" s="25" t="s">
-        <v>606</v>
       </c>
       <c r="G176" s="23">
         <v>0</v>
@@ -8942,7 +8948,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="D177" s="23">
         <v>-1</v>
@@ -8951,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="23" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="G177" s="23">
         <v>0</v>
@@ -8974,16 +8980,16 @@
         <v>177</v>
       </c>
       <c r="C178" s="27" t="s">
+        <v>607</v>
+      </c>
+      <c r="D178" s="26">
+        <v>-1</v>
+      </c>
+      <c r="E178" s="26">
+        <v>1</v>
+      </c>
+      <c r="F178" s="26" t="s">
         <v>608</v>
-      </c>
-      <c r="D178" s="26">
-        <v>-1</v>
-      </c>
-      <c r="E178" s="26">
-        <v>1</v>
-      </c>
-      <c r="F178" s="26" t="s">
-        <v>609</v>
       </c>
       <c r="G178" s="26">
         <v>0</v>
@@ -8992,10 +8998,10 @@
         <v>33</v>
       </c>
       <c r="I178" s="26" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="J178" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="179" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -9005,11 +9011,17 @@
       <c r="B179" s="11">
         <v>178</v>
       </c>
+      <c r="C179" s="28" t="s">
+        <v>633</v>
+      </c>
       <c r="D179" s="28">
         <v>-1</v>
       </c>
       <c r="E179" s="28">
         <v>1</v>
+      </c>
+      <c r="F179" s="28" t="s">
+        <v>634</v>
       </c>
       <c r="G179" s="28">
         <v>0</v>
@@ -9018,10 +9030,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="28" t="s">
-        <v>614</v>
+        <v>635</v>
       </c>
       <c r="J179" s="28" t="s">
-        <v>613</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.10/item_config.xlsx
+++ b/config_11.10/item_config.xlsx
@@ -1480,10 +1480,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prop_web_chip_huafei</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>com_award_icon_hfsp</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -2588,6 +2584,10 @@
   </si>
   <si>
     <t>prop_3d_fish_nuclear_bomb_1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_web_chip_huafei</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3120,9 +3120,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q179"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A162" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3186,7 +3186,7 @@
         <v>11</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="O1" s="10" t="s">
         <v>296</v>
@@ -3274,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>20</v>
@@ -3300,13 +3300,13 @@
         <v>1</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
@@ -3352,13 +3352,13 @@
         <v>1</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
@@ -3378,13 +3378,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G33" s="2">
         <v>1</v>
@@ -4425,7 +4425,7 @@
         <v>41</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D43" s="2">
         <v>-1</v>
@@ -4602,7 +4602,7 @@
         <v>46</v>
       </c>
       <c r="C48" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D48" s="2">
         <v>-1</v>
@@ -4636,7 +4636,7 @@
         <v>47</v>
       </c>
       <c r="C49" s="14" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D49" s="2">
         <v>-1</v>
@@ -4808,7 +4808,7 @@
         <v>1</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G54" s="2">
         <v>1</v>
@@ -4846,7 +4846,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G55" s="2">
         <v>1</v>
@@ -4884,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G56" s="2">
         <v>1</v>
@@ -5429,7 +5429,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="G72" s="2">
         <v>1</v>
@@ -5461,7 +5461,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G73" s="2">
         <v>1</v>
@@ -5499,7 +5499,7 @@
         <v>1</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G74" s="2">
         <v>1</v>
@@ -5623,7 +5623,7 @@
         <v>277</v>
       </c>
       <c r="J77" s="16" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L77" s="5" t="s">
         <v>331</v>
@@ -5711,7 +5711,7 @@
         <v>1</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G80" s="2">
         <v>1</v>
@@ -5720,13 +5720,13 @@
         <v>23</v>
       </c>
       <c r="I80" s="5" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J80" s="15" t="s">
         <v>286</v>
       </c>
       <c r="L80" s="5" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="27" x14ac:dyDescent="0.2">
@@ -5758,7 +5758,7 @@
         <v>289</v>
       </c>
       <c r="J81" s="16" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="L81" s="5" t="s">
         <v>297</v>
@@ -5796,7 +5796,7 @@
         <v>292</v>
       </c>
       <c r="J82" s="16" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L82" s="5" t="s">
         <v>298</v>
@@ -6186,7 +6186,7 @@
         <v>328</v>
       </c>
       <c r="J94" s="5" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L94" s="5" t="s">
         <v>332</v>
@@ -6273,16 +6273,16 @@
         <v>96</v>
       </c>
       <c r="C97" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="D97" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E97" s="2">
+        <v>1</v>
+      </c>
+      <c r="F97" s="14" t="s">
         <v>349</v>
-      </c>
-      <c r="D97" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E97" s="2">
-        <v>1</v>
-      </c>
-      <c r="F97" s="14" t="s">
-        <v>350</v>
       </c>
       <c r="G97" s="2">
         <v>1</v>
@@ -6305,7 +6305,7 @@
         <v>97</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D98" s="2">
         <v>-1</v>
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G98" s="2">
         <v>1</v>
@@ -6323,10 +6323,10 @@
         <v>36</v>
       </c>
       <c r="I98" s="5" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J98" s="5" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="N98" s="2">
         <v>9</v>
@@ -6340,7 +6340,7 @@
         <v>98</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D99" s="2">
         <v>-1</v>
@@ -6349,7 +6349,7 @@
         <v>1</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G99" s="2">
         <v>1</v>
@@ -6358,10 +6358,10 @@
         <v>37</v>
       </c>
       <c r="I99" s="5" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="J99" s="5" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="N99" s="2">
         <v>9</v>
@@ -6375,7 +6375,7 @@
         <v>99</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D100" s="2">
         <v>-1</v>
@@ -6384,7 +6384,7 @@
         <v>1</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G100" s="2">
         <v>1</v>
@@ -6393,10 +6393,10 @@
         <v>38</v>
       </c>
       <c r="I100" s="5" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J100" s="5" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="N100" s="2">
         <v>9</v>
@@ -6410,7 +6410,7 @@
         <v>100</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D101" s="2">
         <v>-1</v>
@@ -6419,7 +6419,7 @@
         <v>1</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G101" s="2">
         <v>1</v>
@@ -6428,10 +6428,10 @@
         <v>39</v>
       </c>
       <c r="I101" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J101" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="N101" s="2">
         <v>9</v>
@@ -6445,7 +6445,7 @@
         <v>101</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D102" s="2">
         <v>-1</v>
@@ -6454,7 +6454,7 @@
         <v>1</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G102" s="2">
         <v>1</v>
@@ -6463,10 +6463,10 @@
         <v>40</v>
       </c>
       <c r="I102" s="5" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="J102" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="N102" s="2">
         <v>9</v>
@@ -6480,7 +6480,7 @@
         <v>102</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D103" s="2">
         <v>-1</v>
@@ -6489,7 +6489,7 @@
         <v>1</v>
       </c>
       <c r="F103" s="14" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G103" s="2">
         <v>1</v>
@@ -6498,10 +6498,10 @@
         <v>41</v>
       </c>
       <c r="I103" s="5" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="J103" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="N103" s="2">
         <v>9</v>
@@ -6515,7 +6515,7 @@
         <v>103</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D104" s="2">
         <v>-1</v>
@@ -6524,7 +6524,7 @@
         <v>1</v>
       </c>
       <c r="F104" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G104" s="2">
         <v>1</v>
@@ -6533,10 +6533,10 @@
         <v>42</v>
       </c>
       <c r="I104" s="5" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="J104" s="5" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N104" s="2">
         <v>9</v>
@@ -6550,7 +6550,7 @@
         <v>104</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D105" s="2">
         <v>-1</v>
@@ -6559,7 +6559,7 @@
         <v>1</v>
       </c>
       <c r="F105" s="14" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G105" s="2">
         <v>1</v>
@@ -6568,10 +6568,10 @@
         <v>43</v>
       </c>
       <c r="I105" s="5" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J105" s="5" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="N105" s="2">
         <v>9</v>
@@ -6585,7 +6585,7 @@
         <v>105</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D106" s="2">
         <v>-1</v>
@@ -6594,7 +6594,7 @@
         <v>1</v>
       </c>
       <c r="F106" s="14" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G106" s="2">
         <v>1</v>
@@ -6603,10 +6603,10 @@
         <v>44</v>
       </c>
       <c r="I106" s="5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J106" s="5" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="N106" s="2">
         <v>9</v>
@@ -6620,7 +6620,7 @@
         <v>106</v>
       </c>
       <c r="C107" s="14" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D107" s="2">
         <v>-1</v>
@@ -6629,7 +6629,7 @@
         <v>1</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G107" s="2">
         <v>1</v>
@@ -6638,7 +6638,7 @@
         <v>32</v>
       </c>
       <c r="I107" s="5" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J107" s="5" t="s">
         <v>173</v>
@@ -6657,7 +6657,7 @@
         <v>107</v>
       </c>
       <c r="C108" s="14" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D108" s="2">
         <v>-1</v>
@@ -6666,7 +6666,7 @@
         <v>1</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G108" s="2">
         <v>1</v>
@@ -6675,7 +6675,7 @@
         <v>33</v>
       </c>
       <c r="I108" s="5" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="J108" s="5" t="s">
         <v>177</v>
@@ -6694,7 +6694,7 @@
         <v>108</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D109" s="2">
         <v>-1</v>
@@ -6703,7 +6703,7 @@
         <v>1</v>
       </c>
       <c r="F109" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G109" s="2">
         <v>1</v>
@@ -6712,10 +6712,10 @@
         <v>33</v>
       </c>
       <c r="I109" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="J109" s="5" t="s">
         <v>373</v>
-      </c>
-      <c r="J109" s="5" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="110" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -6726,7 +6726,7 @@
         <v>109</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D110" s="2">
         <v>-1</v>
@@ -6735,7 +6735,7 @@
         <v>1</v>
       </c>
       <c r="F110" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G110" s="2">
         <v>1</v>
@@ -6744,10 +6744,10 @@
         <v>34</v>
       </c>
       <c r="I110" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="J110" s="5" t="s">
         <v>377</v>
-      </c>
-      <c r="J110" s="5" t="s">
-        <v>378</v>
       </c>
       <c r="L110" s="5"/>
     </row>
@@ -6759,28 +6759,28 @@
         <v>110</v>
       </c>
       <c r="C111" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="D111" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E111" s="2">
+        <v>1</v>
+      </c>
+      <c r="F111" s="2" t="s">
         <v>398</v>
       </c>
-      <c r="D111" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E111" s="2">
-        <v>1</v>
-      </c>
-      <c r="F111" s="2" t="s">
+      <c r="G111" s="2">
+        <v>1</v>
+      </c>
+      <c r="H111" s="2">
+        <v>1</v>
+      </c>
+      <c r="I111" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="G111" s="2">
-        <v>1</v>
-      </c>
-      <c r="H111" s="2">
-        <v>1</v>
-      </c>
-      <c r="I111" s="5" t="s">
-        <v>400</v>
-      </c>
       <c r="J111" s="5" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="L111" s="5" t="s">
         <v>174</v>
@@ -6797,28 +6797,28 @@
         <v>111</v>
       </c>
       <c r="C112" s="14" t="s">
+        <v>400</v>
+      </c>
+      <c r="D112" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E112" s="2">
+        <v>1</v>
+      </c>
+      <c r="F112" s="5" t="s">
         <v>401</v>
       </c>
-      <c r="D112" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E112" s="2">
-        <v>1</v>
-      </c>
-      <c r="F112" s="5" t="s">
+      <c r="G112" s="2">
+        <v>1</v>
+      </c>
+      <c r="H112" s="2">
+        <v>1</v>
+      </c>
+      <c r="I112" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="G112" s="2">
-        <v>1</v>
-      </c>
-      <c r="H112" s="2">
-        <v>1</v>
-      </c>
-      <c r="I112" s="5" t="s">
-        <v>403</v>
-      </c>
       <c r="J112" s="5" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="L112" s="5" t="s">
         <v>174</v>
@@ -6835,28 +6835,28 @@
         <v>112</v>
       </c>
       <c r="C113" s="14" t="s">
+        <v>403</v>
+      </c>
+      <c r="D113" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E113" s="2">
+        <v>1</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G113" s="2">
+        <v>1</v>
+      </c>
+      <c r="H113" s="2">
+        <v>1</v>
+      </c>
+      <c r="I113" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D113" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E113" s="2">
-        <v>1</v>
-      </c>
-      <c r="F113" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G113" s="2">
-        <v>1</v>
-      </c>
-      <c r="H113" s="2">
-        <v>1</v>
-      </c>
-      <c r="I113" s="5" t="s">
-        <v>405</v>
-      </c>
       <c r="J113" s="5" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L113" s="5" t="s">
         <v>174</v>
@@ -6873,28 +6873,28 @@
         <v>113</v>
       </c>
       <c r="C114" s="14" t="s">
+        <v>405</v>
+      </c>
+      <c r="D114" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E114" s="2">
+        <v>1</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G114" s="2">
+        <v>1</v>
+      </c>
+      <c r="H114" s="2">
+        <v>1</v>
+      </c>
+      <c r="I114" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="D114" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E114" s="2">
-        <v>1</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="G114" s="2">
-        <v>1</v>
-      </c>
-      <c r="H114" s="2">
-        <v>1</v>
-      </c>
-      <c r="I114" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="J114" s="5" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="L114" s="5" t="s">
         <v>174</v>
@@ -6911,28 +6911,28 @@
         <v>114</v>
       </c>
       <c r="C115" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="D115" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E115" s="2">
+        <v>1</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G115" s="2">
+        <v>1</v>
+      </c>
+      <c r="H115" s="2">
+        <v>1</v>
+      </c>
+      <c r="I115" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D115" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E115" s="2">
-        <v>1</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>399</v>
-      </c>
-      <c r="G115" s="2">
-        <v>1</v>
-      </c>
-      <c r="H115" s="2">
-        <v>1</v>
-      </c>
-      <c r="I115" s="5" t="s">
-        <v>409</v>
-      </c>
       <c r="J115" s="5" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L115" s="5" t="s">
         <v>174</v>
@@ -6949,28 +6949,28 @@
         <v>115</v>
       </c>
       <c r="C116" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="D116" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E116" s="2">
+        <v>1</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="G116" s="2">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2">
+        <v>1</v>
+      </c>
+      <c r="I116" s="5" t="s">
         <v>410</v>
       </c>
-      <c r="D116" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E116" s="2">
-        <v>1</v>
-      </c>
-      <c r="F116" s="5" t="s">
-        <v>402</v>
-      </c>
-      <c r="G116" s="2">
-        <v>1</v>
-      </c>
-      <c r="H116" s="2">
-        <v>1</v>
-      </c>
-      <c r="I116" s="5" t="s">
-        <v>411</v>
-      </c>
       <c r="J116" s="5" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="L116" s="5" t="s">
         <v>174</v>
@@ -6987,16 +6987,16 @@
         <v>116</v>
       </c>
       <c r="C117" s="14" t="s">
+        <v>451</v>
+      </c>
+      <c r="D117" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E117" s="2">
+        <v>1</v>
+      </c>
+      <c r="F117" s="5" t="s">
         <v>452</v>
-      </c>
-      <c r="D117" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E117" s="2">
-        <v>1</v>
-      </c>
-      <c r="F117" s="5" t="s">
-        <v>453</v>
       </c>
       <c r="G117" s="2">
         <v>0</v>
@@ -7005,10 +7005,10 @@
         <v>33</v>
       </c>
       <c r="I117" s="5" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J117" s="5" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K117" s="5"/>
       <c r="L117" s="5"/>
@@ -7021,16 +7021,16 @@
         <v>117</v>
       </c>
       <c r="C118" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="D118" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E118" s="2">
+        <v>1</v>
+      </c>
+      <c r="F118" s="5" t="s">
         <v>435</v>
-      </c>
-      <c r="D118" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E118" s="2">
-        <v>1</v>
-      </c>
-      <c r="F118" s="5" t="s">
-        <v>436</v>
       </c>
       <c r="G118" s="2">
         <v>0</v>
@@ -7039,10 +7039,10 @@
         <v>36</v>
       </c>
       <c r="I118" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J118" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="119" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7053,16 +7053,16 @@
         <v>118</v>
       </c>
       <c r="C119" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="D119" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E119" s="2">
+        <v>1</v>
+      </c>
+      <c r="F119" s="5" t="s">
         <v>440</v>
-      </c>
-      <c r="D119" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E119" s="2">
-        <v>1</v>
-      </c>
-      <c r="F119" s="5" t="s">
-        <v>441</v>
       </c>
       <c r="G119" s="2">
         <v>0</v>
@@ -7071,10 +7071,10 @@
         <v>37</v>
       </c>
       <c r="I119" s="5" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="J119" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="120" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7085,16 +7085,16 @@
         <v>119</v>
       </c>
       <c r="C120" s="14" t="s">
+        <v>442</v>
+      </c>
+      <c r="D120" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E120" s="2">
+        <v>1</v>
+      </c>
+      <c r="F120" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="D120" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E120" s="2">
-        <v>1</v>
-      </c>
-      <c r="F120" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="G120" s="2">
         <v>0</v>
@@ -7103,10 +7103,10 @@
         <v>38</v>
       </c>
       <c r="I120" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J120" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="121" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7117,16 +7117,16 @@
         <v>120</v>
       </c>
       <c r="C121" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="D121" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E121" s="2">
+        <v>1</v>
+      </c>
+      <c r="F121" s="2" t="s">
         <v>446</v>
-      </c>
-      <c r="D121" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E121" s="2">
-        <v>1</v>
-      </c>
-      <c r="F121" s="2" t="s">
-        <v>447</v>
       </c>
       <c r="G121" s="2">
         <v>0</v>
@@ -7135,10 +7135,10 @@
         <v>39</v>
       </c>
       <c r="I121" s="5" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J121" s="5" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="122" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7149,16 +7149,16 @@
         <v>121</v>
       </c>
       <c r="C122" s="14" t="s">
+        <v>448</v>
+      </c>
+      <c r="D122" s="2">
+        <v>-1</v>
+      </c>
+      <c r="E122" s="2">
+        <v>1</v>
+      </c>
+      <c r="F122" s="2" t="s">
         <v>449</v>
-      </c>
-      <c r="D122" s="2">
-        <v>-1</v>
-      </c>
-      <c r="E122" s="2">
-        <v>1</v>
-      </c>
-      <c r="F122" s="2" t="s">
-        <v>450</v>
       </c>
       <c r="G122" s="2">
         <v>0</v>
@@ -7167,10 +7167,10 @@
         <v>40</v>
       </c>
       <c r="I122" s="5" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J122" s="5" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="123" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
@@ -7181,7 +7181,7 @@
         <v>122</v>
       </c>
       <c r="C123" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D123" s="2">
         <v>-1</v>
@@ -7190,7 +7190,7 @@
         <v>1</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G123" s="2">
         <v>1</v>
@@ -7199,10 +7199,10 @@
         <v>41</v>
       </c>
       <c r="I123" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J123" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N123" s="2">
         <v>1</v>
@@ -7216,7 +7216,7 @@
         <v>123</v>
       </c>
       <c r="C124" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D124" s="2">
         <v>-1</v>
@@ -7225,7 +7225,7 @@
         <v>1</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G124" s="2">
         <v>1</v>
@@ -7234,10 +7234,10 @@
         <v>42</v>
       </c>
       <c r="I124" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J124" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N124" s="2">
         <v>1</v>
@@ -7251,7 +7251,7 @@
         <v>124</v>
       </c>
       <c r="C125" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D125" s="2">
         <v>-1</v>
@@ -7260,7 +7260,7 @@
         <v>1</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G125" s="2">
         <v>1</v>
@@ -7269,10 +7269,10 @@
         <v>43</v>
       </c>
       <c r="I125" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J125" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N125" s="2">
         <v>1</v>
@@ -7286,7 +7286,7 @@
         <v>125</v>
       </c>
       <c r="C126" s="14" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D126" s="2">
         <v>-1</v>
@@ -7295,7 +7295,7 @@
         <v>1</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G126" s="2">
         <v>1</v>
@@ -7304,10 +7304,10 @@
         <v>44</v>
       </c>
       <c r="I126" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J126" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N126" s="2">
         <v>1</v>
@@ -7321,7 +7321,7 @@
         <v>126</v>
       </c>
       <c r="C127" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D127" s="2">
         <v>-1</v>
@@ -7330,7 +7330,7 @@
         <v>1</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G127" s="2">
         <v>1</v>
@@ -7339,10 +7339,10 @@
         <v>45</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="J127" s="5" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="N127" s="2">
         <v>1</v>
@@ -7356,7 +7356,7 @@
         <v>127</v>
       </c>
       <c r="C128" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="D128" s="2">
         <v>-1</v>
@@ -7365,7 +7365,7 @@
         <v>1</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G128" s="2">
         <v>1</v>
@@ -7374,10 +7374,10 @@
         <v>46</v>
       </c>
       <c r="I128" s="5" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="J128" s="5" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="N128" s="2">
         <v>1</v>
@@ -7391,7 +7391,7 @@
         <v>128</v>
       </c>
       <c r="C129" s="14" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="D129" s="2">
         <v>-1</v>
@@ -7400,7 +7400,7 @@
         <v>1</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G129" s="2">
         <v>1</v>
@@ -7409,10 +7409,10 @@
         <v>47</v>
       </c>
       <c r="I129" s="5" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="J129" s="5" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N129" s="2">
         <v>1</v>
@@ -7426,7 +7426,7 @@
         <v>129</v>
       </c>
       <c r="C130" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="D130" s="2">
         <v>-1</v>
@@ -7435,7 +7435,7 @@
         <v>1</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G130" s="2">
         <v>1</v>
@@ -7444,10 +7444,10 @@
         <v>48</v>
       </c>
       <c r="I130" s="5" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="J130" s="5" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="N130" s="2">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D131" s="2">
         <v>-1</v>
@@ -7470,7 +7470,7 @@
         <v>1</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G131" s="2">
         <v>0</v>
@@ -7479,10 +7479,10 @@
         <v>1</v>
       </c>
       <c r="I131" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="J131" s="5" t="s">
         <v>501</v>
-      </c>
-      <c r="J131" s="5" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="132" spans="1:14" x14ac:dyDescent="0.2">
@@ -7493,7 +7493,7 @@
         <v>131</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D132" s="2">
         <v>-1</v>
@@ -7502,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G132" s="2">
         <v>0</v>
@@ -7511,10 +7511,10 @@
         <v>33</v>
       </c>
       <c r="I132" s="5" t="s">
+        <v>472</v>
+      </c>
+      <c r="J132" s="5" t="s">
         <v>473</v>
-      </c>
-      <c r="J132" s="5" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="133" spans="1:14" x14ac:dyDescent="0.2">
@@ -7525,7 +7525,7 @@
         <v>132</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D133" s="2">
         <v>-1</v>
@@ -7534,7 +7534,7 @@
         <v>1</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G133" s="2">
         <v>0</v>
@@ -7543,10 +7543,10 @@
         <v>33</v>
       </c>
       <c r="I133" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J133" s="5" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="134" spans="1:14" x14ac:dyDescent="0.2">
@@ -7557,7 +7557,7 @@
         <v>133</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D134" s="2">
         <v>-1</v>
@@ -7566,7 +7566,7 @@
         <v>1</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G134" s="2">
         <v>0</v>
@@ -7575,10 +7575,10 @@
         <v>33</v>
       </c>
       <c r="I134" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J134" s="5" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="135" spans="1:14" x14ac:dyDescent="0.2">
@@ -7589,7 +7589,7 @@
         <v>134</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D135" s="2">
         <v>-1</v>
@@ -7598,7 +7598,7 @@
         <v>1</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G135" s="2">
         <v>0</v>
@@ -7607,10 +7607,10 @@
         <v>33</v>
       </c>
       <c r="I135" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J135" s="5" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="136" spans="1:14" x14ac:dyDescent="0.2">
@@ -7621,7 +7621,7 @@
         <v>135</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D136" s="2">
         <v>-1</v>
@@ -7630,7 +7630,7 @@
         <v>1</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G136" s="2">
         <v>0</v>
@@ -7639,10 +7639,10 @@
         <v>33</v>
       </c>
       <c r="I136" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J136" s="5" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="137" spans="1:14" x14ac:dyDescent="0.2">
@@ -7653,7 +7653,7 @@
         <v>136</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D137" s="2">
         <v>-1</v>
@@ -7662,7 +7662,7 @@
         <v>1</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G137" s="2">
         <v>0</v>
@@ -7671,10 +7671,10 @@
         <v>33</v>
       </c>
       <c r="I137" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J137" s="5" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="138" spans="1:14" x14ac:dyDescent="0.2">
@@ -7685,7 +7685,7 @@
         <v>137</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D138" s="2">
         <v>-1</v>
@@ -7694,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G138" s="2">
         <v>0</v>
@@ -7703,10 +7703,10 @@
         <v>33</v>
       </c>
       <c r="I138" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J138" s="5" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="139" spans="1:14" x14ac:dyDescent="0.2">
@@ -7717,7 +7717,7 @@
         <v>138</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D139" s="2">
         <v>-1</v>
@@ -7726,7 +7726,7 @@
         <v>1</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G139" s="2">
         <v>0</v>
@@ -7735,10 +7735,10 @@
         <v>33</v>
       </c>
       <c r="I139" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J139" s="5" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="140" spans="1:14" x14ac:dyDescent="0.2">
@@ -7749,7 +7749,7 @@
         <v>139</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D140" s="2">
         <v>-1</v>
@@ -7767,10 +7767,10 @@
         <v>33</v>
       </c>
       <c r="I140" s="5" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J140" s="5" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="141" spans="1:14" x14ac:dyDescent="0.2">
@@ -7781,7 +7781,7 @@
         <v>140</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D141" s="2">
         <v>-1</v>
@@ -7790,7 +7790,7 @@
         <v>1</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G141" s="2">
         <v>0</v>
@@ -7799,10 +7799,10 @@
         <v>33</v>
       </c>
       <c r="I141" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="J141" s="5" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="142" spans="1:14" x14ac:dyDescent="0.2">
@@ -7813,7 +7813,7 @@
         <v>141</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D142" s="2">
         <v>-1</v>
@@ -7822,7 +7822,7 @@
         <v>1</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G142" s="2">
         <v>0</v>
@@ -7831,10 +7831,10 @@
         <v>33</v>
       </c>
       <c r="I142" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J142" s="5" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="143" spans="1:14" x14ac:dyDescent="0.2">
@@ -7845,7 +7845,7 @@
         <v>142</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D143" s="2">
         <v>-1</v>
@@ -7854,7 +7854,7 @@
         <v>1</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G143" s="2">
         <v>0</v>
@@ -7863,10 +7863,10 @@
         <v>33</v>
       </c>
       <c r="I143" s="5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J143" s="5" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="144" spans="1:14" x14ac:dyDescent="0.2">
@@ -7877,7 +7877,7 @@
         <v>143</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D144" s="2">
         <v>-1</v>
@@ -7886,7 +7886,7 @@
         <v>1</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G144" s="2">
         <v>0</v>
@@ -7895,10 +7895,10 @@
         <v>33</v>
       </c>
       <c r="I144" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="J144" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="J144" s="5" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -7909,7 +7909,7 @@
         <v>144</v>
       </c>
       <c r="C145" s="5" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="D145" s="2">
         <v>-1</v>
@@ -7918,7 +7918,7 @@
         <v>1</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G145" s="2">
         <v>0</v>
@@ -7927,10 +7927,10 @@
         <v>33</v>
       </c>
       <c r="I145" s="5" t="s">
+        <v>510</v>
+      </c>
+      <c r="J145" s="5" t="s">
         <v>511</v>
-      </c>
-      <c r="J145" s="5" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="146" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7941,7 +7941,7 @@
         <v>145</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D146" s="11">
         <v>-1</v>
@@ -7950,7 +7950,7 @@
         <v>1</v>
       </c>
       <c r="F146" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G146" s="11">
         <v>0</v>
@@ -7959,10 +7959,10 @@
         <v>33</v>
       </c>
       <c r="I146" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="J146" s="21" t="s">
         <v>523</v>
-      </c>
-      <c r="J146" s="21" t="s">
-        <v>524</v>
       </c>
     </row>
     <row r="147" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -7973,7 +7973,7 @@
         <v>146</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D147" s="11">
         <v>-1</v>
@@ -7982,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="F147" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G147" s="11">
         <v>0</v>
@@ -7991,10 +7991,10 @@
         <v>33</v>
       </c>
       <c r="I147" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="J147" s="21" t="s">
         <v>526</v>
-      </c>
-      <c r="J147" s="21" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="148" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8005,7 +8005,7 @@
         <v>147</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D148" s="11">
         <v>-1</v>
@@ -8014,7 +8014,7 @@
         <v>1</v>
       </c>
       <c r="F148" s="12" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G148" s="11">
         <v>0</v>
@@ -8023,10 +8023,10 @@
         <v>33</v>
       </c>
       <c r="I148" s="12" t="s">
+        <v>528</v>
+      </c>
+      <c r="J148" s="21" t="s">
         <v>529</v>
-      </c>
-      <c r="J148" s="21" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="149" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8037,7 +8037,7 @@
         <v>148</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="D149" s="11">
         <v>-1</v>
@@ -8046,7 +8046,7 @@
         <v>1</v>
       </c>
       <c r="F149" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G149" s="11">
         <v>0</v>
@@ -8055,10 +8055,10 @@
         <v>33</v>
       </c>
       <c r="I149" s="12" t="s">
+        <v>531</v>
+      </c>
+      <c r="J149" s="21" t="s">
         <v>532</v>
-      </c>
-      <c r="J149" s="21" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="150" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8069,7 +8069,7 @@
         <v>149</v>
       </c>
       <c r="C150" s="19" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="D150" s="11">
         <v>-1</v>
@@ -8078,7 +8078,7 @@
         <v>1</v>
       </c>
       <c r="F150" s="12" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="G150" s="11">
         <v>0</v>
@@ -8087,10 +8087,10 @@
         <v>33</v>
       </c>
       <c r="I150" s="12" t="s">
+        <v>534</v>
+      </c>
+      <c r="J150" s="21" t="s">
         <v>535</v>
-      </c>
-      <c r="J150" s="21" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="151" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8101,16 +8101,16 @@
         <v>150</v>
       </c>
       <c r="C151" s="19" t="s">
+        <v>536</v>
+      </c>
+      <c r="D151" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E151" s="11">
+        <v>1</v>
+      </c>
+      <c r="F151" s="12" t="s">
         <v>537</v>
-      </c>
-      <c r="D151" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E151" s="11">
-        <v>1</v>
-      </c>
-      <c r="F151" s="12" t="s">
-        <v>538</v>
       </c>
       <c r="G151" s="11">
         <v>0</v>
@@ -8119,10 +8119,10 @@
         <v>33</v>
       </c>
       <c r="I151" s="12" t="s">
+        <v>538</v>
+      </c>
+      <c r="J151" s="21" t="s">
         <v>539</v>
-      </c>
-      <c r="J151" s="21" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="152" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8133,7 +8133,7 @@
         <v>151</v>
       </c>
       <c r="C152" s="19" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D152" s="11">
         <v>-1</v>
@@ -8142,7 +8142,7 @@
         <v>1</v>
       </c>
       <c r="F152" s="12" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="G152" s="11">
         <v>0</v>
@@ -8151,10 +8151,10 @@
         <v>33</v>
       </c>
       <c r="I152" s="12" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J152" s="21" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="153" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8165,7 +8165,7 @@
         <v>152</v>
       </c>
       <c r="C153" s="19" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D153" s="11">
         <v>-1</v>
@@ -8174,7 +8174,7 @@
         <v>1</v>
       </c>
       <c r="F153" s="12" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="G153" s="11">
         <v>0</v>
@@ -8183,10 +8183,10 @@
         <v>33</v>
       </c>
       <c r="I153" s="12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="J153" s="21" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="154" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8197,7 +8197,7 @@
         <v>153</v>
       </c>
       <c r="C154" s="19" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D154" s="11">
         <v>-1</v>
@@ -8206,7 +8206,7 @@
         <v>1</v>
       </c>
       <c r="F154" s="12" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="G154" s="11">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>33</v>
       </c>
       <c r="I154" s="12" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J154" s="21" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="155" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
@@ -8229,16 +8229,16 @@
         <v>154</v>
       </c>
       <c r="C155" s="12" t="s">
+        <v>551</v>
+      </c>
+      <c r="D155" s="11">
+        <v>-1</v>
+      </c>
+      <c r="E155" s="11">
+        <v>1</v>
+      </c>
+      <c r="F155" s="12" t="s">
         <v>552</v>
-      </c>
-      <c r="D155" s="11">
-        <v>-1</v>
-      </c>
-      <c r="E155" s="11">
-        <v>1</v>
-      </c>
-      <c r="F155" s="12" t="s">
-        <v>553</v>
       </c>
       <c r="G155" s="11">
         <v>0</v>
@@ -8247,10 +8247,10 @@
         <v>33</v>
       </c>
       <c r="I155" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J155" s="12" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="156" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8261,7 +8261,7 @@
         <v>155</v>
       </c>
       <c r="C156" s="19" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="D156" s="11">
         <v>-1</v>
@@ -8270,7 +8270,7 @@
         <v>1</v>
       </c>
       <c r="F156" s="12" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G156" s="11">
         <v>0</v>
@@ -8279,10 +8279,10 @@
         <v>33</v>
       </c>
       <c r="I156" s="12" t="s">
+        <v>554</v>
+      </c>
+      <c r="J156" s="21" t="s">
         <v>555</v>
-      </c>
-      <c r="J156" s="21" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="157" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8293,7 +8293,7 @@
         <v>156</v>
       </c>
       <c r="C157" s="22" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D157" s="11">
         <v>-1</v>
@@ -8302,7 +8302,7 @@
         <v>1</v>
       </c>
       <c r="F157" s="12" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="G157" s="11">
         <v>1</v>
@@ -8311,13 +8311,13 @@
         <v>34</v>
       </c>
       <c r="I157" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="J157" s="12" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="L157" s="12" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="158" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8328,7 +8328,7 @@
         <v>157</v>
       </c>
       <c r="C158" s="22" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="D158" s="11">
         <v>-1</v>
@@ -8337,7 +8337,7 @@
         <v>1</v>
       </c>
       <c r="F158" s="12" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="G158" s="11">
         <v>1</v>
@@ -8346,13 +8346,13 @@
         <v>34</v>
       </c>
       <c r="I158" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="J158" s="12" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="L158" s="12" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="159" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8363,7 +8363,7 @@
         <v>158</v>
       </c>
       <c r="C159" s="22" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D159" s="11">
         <v>-1</v>
@@ -8372,7 +8372,7 @@
         <v>1</v>
       </c>
       <c r="F159" s="12" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="G159" s="11">
         <v>1</v>
@@ -8381,13 +8381,13 @@
         <v>34</v>
       </c>
       <c r="I159" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J159" s="12" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="L159" s="12" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="160" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8398,7 +8398,7 @@
         <v>159</v>
       </c>
       <c r="C160" s="22" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D160" s="11">
         <v>-1</v>
@@ -8407,7 +8407,7 @@
         <v>1</v>
       </c>
       <c r="F160" s="12" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="G160" s="11">
         <v>1</v>
@@ -8416,13 +8416,13 @@
         <v>34</v>
       </c>
       <c r="I160" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="J160" s="12" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="L160" s="12" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="161" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8433,7 +8433,7 @@
         <v>160</v>
       </c>
       <c r="C161" s="22" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D161" s="11">
         <v>-1</v>
@@ -8442,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="F161" s="12" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="G161" s="11">
         <v>1</v>
@@ -8451,13 +8451,13 @@
         <v>34</v>
       </c>
       <c r="I161" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="J161" s="12" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="L161" s="12" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="162" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8468,7 +8468,7 @@
         <v>161</v>
       </c>
       <c r="C162" s="22" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D162" s="11">
         <v>-1</v>
@@ -8477,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="F162" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G162" s="11">
         <v>1</v>
@@ -8486,10 +8486,10 @@
         <v>34</v>
       </c>
       <c r="I162" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="J162" s="12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="163" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8500,7 +8500,7 @@
         <v>162</v>
       </c>
       <c r="C163" s="22" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="D163" s="11">
         <v>-1</v>
@@ -8509,7 +8509,7 @@
         <v>1</v>
       </c>
       <c r="F163" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G163" s="11">
         <v>1</v>
@@ -8518,10 +8518,10 @@
         <v>34</v>
       </c>
       <c r="I163" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="J163" s="12" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="164" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8532,7 +8532,7 @@
         <v>163</v>
       </c>
       <c r="C164" s="22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D164" s="11">
         <v>-1</v>
@@ -8541,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="F164" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G164" s="11">
         <v>1</v>
@@ -8550,10 +8550,10 @@
         <v>34</v>
       </c>
       <c r="I164" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J164" s="12" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="165" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8564,7 +8564,7 @@
         <v>164</v>
       </c>
       <c r="C165" s="22" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D165" s="11">
         <v>-1</v>
@@ -8573,7 +8573,7 @@
         <v>1</v>
       </c>
       <c r="F165" s="12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="G165" s="11">
         <v>1</v>
@@ -8582,10 +8582,10 @@
         <v>34</v>
       </c>
       <c r="I165" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="J165" s="12" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="166" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8596,7 +8596,7 @@
         <v>165</v>
       </c>
       <c r="C166" s="22" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D166" s="11">
         <v>-1</v>
@@ -8605,7 +8605,7 @@
         <v>1</v>
       </c>
       <c r="F166" s="12" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="G166" s="11">
         <v>1</v>
@@ -8614,10 +8614,10 @@
         <v>34</v>
       </c>
       <c r="I166" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="J166" s="12" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="167" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8628,7 +8628,7 @@
         <v>166</v>
       </c>
       <c r="C167" s="22" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D167" s="11">
         <v>-1</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="F167" s="12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="G167" s="11">
         <v>1</v>
@@ -8646,10 +8646,10 @@
         <v>34</v>
       </c>
       <c r="I167" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J167" s="12" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="168" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8660,7 +8660,7 @@
         <v>167</v>
       </c>
       <c r="C168" s="22" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D168" s="11">
         <v>-1</v>
@@ -8669,7 +8669,7 @@
         <v>1</v>
       </c>
       <c r="F168" s="12" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="G168" s="11">
         <v>1</v>
@@ -8678,10 +8678,10 @@
         <v>34</v>
       </c>
       <c r="I168" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="J168" s="12" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="169" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8692,7 +8692,7 @@
         <v>168</v>
       </c>
       <c r="C169" s="22" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D169" s="11">
         <v>-1</v>
@@ -8701,7 +8701,7 @@
         <v>1</v>
       </c>
       <c r="F169" s="12" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="G169" s="11">
         <v>1</v>
@@ -8710,10 +8710,10 @@
         <v>34</v>
       </c>
       <c r="I169" s="12" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="J169" s="12" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="170" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8724,7 +8724,7 @@
         <v>169</v>
       </c>
       <c r="C170" s="22" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D170" s="11">
         <v>-1</v>
@@ -8733,7 +8733,7 @@
         <v>1</v>
       </c>
       <c r="F170" s="12" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="G170" s="11">
         <v>1</v>
@@ -8742,10 +8742,10 @@
         <v>34</v>
       </c>
       <c r="I170" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="J170" s="12" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="171" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8756,7 +8756,7 @@
         <v>170</v>
       </c>
       <c r="C171" s="22" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D171" s="11">
         <v>-1</v>
@@ -8765,7 +8765,7 @@
         <v>1</v>
       </c>
       <c r="F171" s="12" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="G171" s="11">
         <v>1</v>
@@ -8774,10 +8774,10 @@
         <v>34</v>
       </c>
       <c r="I171" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="J171" s="12" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="172" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8788,7 +8788,7 @@
         <v>171</v>
       </c>
       <c r="C172" s="22" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D172" s="11">
         <v>-1</v>
@@ -8797,7 +8797,7 @@
         <v>1</v>
       </c>
       <c r="F172" s="12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="G172" s="11">
         <v>0</v>
@@ -8806,10 +8806,10 @@
         <v>33</v>
       </c>
       <c r="I172" s="12" t="s">
+        <v>583</v>
+      </c>
+      <c r="J172" s="12" t="s">
         <v>584</v>
-      </c>
-      <c r="J172" s="12" t="s">
-        <v>585</v>
       </c>
     </row>
     <row r="173" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8820,16 +8820,16 @@
         <v>172</v>
       </c>
       <c r="C173" s="13" t="s">
+        <v>590</v>
+      </c>
+      <c r="D173" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E173" s="13">
+        <v>1</v>
+      </c>
+      <c r="F173" s="13" t="s">
         <v>591</v>
-      </c>
-      <c r="D173" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E173" s="13">
-        <v>1</v>
-      </c>
-      <c r="F173" s="13" t="s">
-        <v>592</v>
       </c>
       <c r="G173" s="13">
         <v>1</v>
@@ -8838,10 +8838,10 @@
         <v>33</v>
       </c>
       <c r="I173" s="13" t="s">
+        <v>592</v>
+      </c>
+      <c r="J173" s="13" t="s">
         <v>593</v>
-      </c>
-      <c r="J173" s="13" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="174" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8852,16 +8852,16 @@
         <v>173</v>
       </c>
       <c r="C174" s="13" t="s">
+        <v>594</v>
+      </c>
+      <c r="D174" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E174" s="13">
+        <v>1</v>
+      </c>
+      <c r="F174" s="13" t="s">
         <v>595</v>
-      </c>
-      <c r="D174" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E174" s="13">
-        <v>1</v>
-      </c>
-      <c r="F174" s="13" t="s">
-        <v>596</v>
       </c>
       <c r="G174" s="13">
         <v>1</v>
@@ -8870,10 +8870,10 @@
         <v>33</v>
       </c>
       <c r="I174" s="13" t="s">
+        <v>596</v>
+      </c>
+      <c r="J174" s="13" t="s">
         <v>597</v>
-      </c>
-      <c r="J174" s="13" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="175" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
@@ -8884,16 +8884,16 @@
         <v>174</v>
       </c>
       <c r="C175" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="D175" s="13">
+        <v>-1</v>
+      </c>
+      <c r="E175" s="13">
+        <v>1</v>
+      </c>
+      <c r="F175" s="13" t="s">
         <v>599</v>
-      </c>
-      <c r="D175" s="13">
-        <v>-1</v>
-      </c>
-      <c r="E175" s="13">
-        <v>1</v>
-      </c>
-      <c r="F175" s="13" t="s">
-        <v>600</v>
       </c>
       <c r="G175" s="13">
         <v>1</v>
@@ -8902,10 +8902,10 @@
         <v>33</v>
       </c>
       <c r="I175" s="13" t="s">
+        <v>600</v>
+      </c>
+      <c r="J175" s="13" t="s">
         <v>601</v>
-      </c>
-      <c r="J175" s="13" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="176" spans="1:12" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8916,16 +8916,16 @@
         <v>175</v>
       </c>
       <c r="C176" s="24" t="s">
+        <v>603</v>
+      </c>
+      <c r="D176" s="23">
+        <v>-1</v>
+      </c>
+      <c r="E176" s="23">
+        <v>1</v>
+      </c>
+      <c r="F176" s="25" t="s">
         <v>604</v>
-      </c>
-      <c r="D176" s="23">
-        <v>-1</v>
-      </c>
-      <c r="E176" s="23">
-        <v>1</v>
-      </c>
-      <c r="F176" s="25" t="s">
-        <v>605</v>
       </c>
       <c r="G176" s="23">
         <v>0</v>
@@ -8934,10 +8934,10 @@
         <v>36</v>
       </c>
       <c r="I176" s="25" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="J176" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="177" spans="1:10" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -8948,7 +8948,7 @@
         <v>176</v>
       </c>
       <c r="C177" s="24" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D177" s="23">
         <v>-1</v>
@@ -8957,7 +8957,7 @@
         <v>1</v>
       </c>
       <c r="F177" s="23" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="G177" s="23">
         <v>0</v>
@@ -8966,10 +8966,10 @@
         <v>38</v>
       </c>
       <c r="I177" s="25" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="J177" s="25" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="178" spans="1:10" s="26" customFormat="1" x14ac:dyDescent="0.2">
@@ -8980,16 +8980,16 @@
         <v>177</v>
       </c>
       <c r="C178" s="27" t="s">
+        <v>606</v>
+      </c>
+      <c r="D178" s="26">
+        <v>-1</v>
+      </c>
+      <c r="E178" s="26">
+        <v>1</v>
+      </c>
+      <c r="F178" s="26" t="s">
         <v>607</v>
-      </c>
-      <c r="D178" s="26">
-        <v>-1</v>
-      </c>
-      <c r="E178" s="26">
-        <v>1</v>
-      </c>
-      <c r="F178" s="26" t="s">
-        <v>608</v>
       </c>
       <c r="G178" s="26">
         <v>0</v>
@@ -8998,10 +8998,10 @@
         <v>33</v>
       </c>
       <c r="I178" s="26" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="J178" s="26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="179" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.2">
@@ -9012,16 +9012,16 @@
         <v>178</v>
       </c>
       <c r="C179" s="28" t="s">
+        <v>632</v>
+      </c>
+      <c r="D179" s="28">
+        <v>-1</v>
+      </c>
+      <c r="E179" s="28">
+        <v>1</v>
+      </c>
+      <c r="F179" s="28" t="s">
         <v>633</v>
-      </c>
-      <c r="D179" s="28">
-        <v>-1</v>
-      </c>
-      <c r="E179" s="28">
-        <v>1</v>
-      </c>
-      <c r="F179" s="28" t="s">
-        <v>634</v>
       </c>
       <c r="G179" s="28">
         <v>0</v>
@@ -9030,10 +9030,10 @@
         <v>33</v>
       </c>
       <c r="I179" s="28" t="s">
+        <v>634</v>
+      </c>
+      <c r="J179" s="28" t="s">
         <v>635</v>
-      </c>
-      <c r="J179" s="28" t="s">
-        <v>636</v>
       </c>
     </row>
   </sheetData>

--- a/config_11.10/item_config.xlsx
+++ b/config_11.10/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="745" uniqueCount="615">
   <si>
     <t>id|行号</t>
   </si>
@@ -2497,6 +2497,13 @@
   </si>
   <si>
     <t>双十一抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人七天乐积分（new）</t>
+  </si>
+  <si>
+    <t>新人七天乐积分（new）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2575,7 +2582,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2609,6 +2616,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2655,7 +2668,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2738,6 +2751,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3018,11 +3034,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q172"/>
+  <dimension ref="A1:Q173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A159" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F177" sqref="F177"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A153" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L174" sqref="L174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8706,6 +8722,32 @@
         <v>611</v>
       </c>
     </row>
+    <row r="173" spans="1:10" s="28" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A173" s="28">
+        <v>172</v>
+      </c>
+      <c r="B173" s="28">
+        <v>172</v>
+      </c>
+      <c r="D173" s="28">
+        <v>-1</v>
+      </c>
+      <c r="E173" s="28">
+        <v>1</v>
+      </c>
+      <c r="G173" s="28">
+        <v>0</v>
+      </c>
+      <c r="H173" s="28">
+        <v>33</v>
+      </c>
+      <c r="I173" s="28" t="s">
+        <v>614</v>
+      </c>
+      <c r="J173" s="28" t="s">
+        <v>613</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
